--- a/data/trans_camb/P35A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P35A_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,93</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,48</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,47</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 24,77</t>
+          <t>-18,77; 19,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 21,91</t>
+          <t>-7,97; 32,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 42,68</t>
+          <t>-8,02; 33,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 9,36</t>
+          <t>-14,97; 8,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 23,57</t>
+          <t>-13,61; 10,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 12,54</t>
+          <t>-7,55; 21,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,76; 8,98</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 18,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 21,45</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,06%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>117,82%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-27,61%</t>
+          <t>-33,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>-12,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>54,57%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,76%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>75,55%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,06; 140,83</t>
+          <t>-84,84; 468,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 132,32</t>
+          <t>-47,69; 718,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 569,78</t>
+          <t>-46,35; 865,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,36; 167,57</t>
+          <t>-85,65; 244,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 147,88</t>
+          <t>-78,42; 235,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,89; 79,48</t>
+          <t>-44,95; 430,11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-71,52; 132,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-34,63; 261,73</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-24,69; 303,73</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,27</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,11</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 45,07</t>
+          <t>-6,58; 28,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 28,33</t>
+          <t>-16,26; 11,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 20,23</t>
+          <t>-17,61; 11,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 23,39</t>
+          <t>-10,76; 13,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 27,39</t>
+          <t>-12,3; 9,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 23,1</t>
+          <t>-4,9; 24,37</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 15,76</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,7; 7,38</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,08; 11,62</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>128,83%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>-16,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>-23,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>69,34%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>79,76%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55,44%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-10,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 424,1</t>
+          <t>-41,92; 517,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 255,53</t>
+          <t>-82,18; 262,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,72; 444,52</t>
+          <t>-85,71; 205,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 513,42</t>
+          <t>-77,76; 353,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 259,07</t>
+          <t>-85,04; 292,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 238,42</t>
+          <t>-52,41; 639,45</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-36,07; 239,23</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-64,83; 119,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-55,18; 179,82</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 13,88</t>
+          <t>-15,56; 7,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 14,91</t>
+          <t>-14,51; 8,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 12,84</t>
+          <t>-10,27; 14,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 17,53</t>
+          <t>-5,13; 6,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 9,75</t>
+          <t>-3,36; 9,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 13,58</t>
+          <t>-3,8; 8,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 4,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 7,08</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 9,33</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>-29,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>-22,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>55,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>37,53%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37,46%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,72; 272,91</t>
+          <t>-85,33; 135,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 243,77</t>
+          <t>-83,59; 140,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,09; 446,4</t>
+          <t>-57,21; 235,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 430,39</t>
+          <t>-82,91; 360,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,57; 155,17</t>
+          <t>-62,25; 500,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 207,63</t>
+          <t>-64,36; 442,04</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-66,53; 113,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-49,89; 158,21</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-35,98; 203,42</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 5,44</t>
+          <t>-9,26; 8,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 9,11</t>
+          <t>-4,33; 14,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 14,86</t>
+          <t>-3,83; 15,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 8,09</t>
+          <t>-2,26; 8,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 6,86</t>
+          <t>-3,45; 4,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 6,89</t>
+          <t>-2,65; 6,53</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 6,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 7,82</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 8,84</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,71%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>61,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>232,52%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>138,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>70,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>56,88%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>82,44%</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,14; 71,69</t>
+          <t>-75,15; 266,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 133,87</t>
+          <t>-45,79; 449,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,65; —</t>
+          <t>-41,72; 384,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,86; 120,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,96; 124,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-51,17; 244,24</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-35,56; 283,31</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-23,02; 367,28</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>8,84</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 15,43</t>
+          <t>-4,13; 10,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 12,44</t>
+          <t>-4,89; 9,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>-0,2; 25,87</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,15</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 10,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 8,94</t>
+          <t>0,0; 11,2</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 5,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 5,23</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 16,61</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>130,07%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>44,98%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>229,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>124,8%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>116,89%</t>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>70,82%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>42,75%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>273,03%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,83; 943,06</t>
+          <t>-79,57; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 873,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,42; 837,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,89; 820,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-90,22; 934,85</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-32,65; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,86</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,05</t>
+          <t>0,0; 15,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,46; 19,28</t>
+          <t>0,0; 14,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,86</t>
+          <t>1,88; 22,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>0,0; 10,21</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 11,06</t>
-        </is>
-      </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 12,84</t>
+          <t>0,0; 8,8</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 8,76</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,03</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 11,89</t>
         </is>
       </c>
     </row>
@@ -1472,15 +1833,30 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1523,6 +1899,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 10,22</t>
+          <t>-2,5; 6,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 10,14</t>
+          <t>-1,85; 8,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 12,94</t>
+          <t>0,43; 10,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,93</t>
+          <t>-2,18; 4,08</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,62; 9,31</t>
+          <t>-2,4; 3,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,84</t>
+          <t>-0,13; 6,67</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 4,38</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 4,77</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 7,75</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>69,54%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 97,49</t>
+          <t>-23,91; 113,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 96,77</t>
+          <t>-18,72; 128,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 247,47</t>
+          <t>4,03; 175,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 144,19</t>
+          <t>-39,06; 124,69</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>4,24; 106,97</t>
+          <t>-40,58; 125,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 89,18</t>
+          <t>-4,22; 200,5</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 85,55</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 94,42</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 146,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
